--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H2">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J2">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>254.903995897799</v>
+        <v>16.702115337848</v>
       </c>
       <c r="R2">
-        <v>2294.135963080191</v>
+        <v>150.319038040632</v>
       </c>
       <c r="S2">
-        <v>0.04223500332079057</v>
+        <v>0.004193043465386905</v>
       </c>
       <c r="T2">
-        <v>0.04223500332079057</v>
+        <v>0.004193043465386905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H3">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J3">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>258.552770441417</v>
+        <v>378.898823085776</v>
       </c>
       <c r="R3">
-        <v>2326.974933972752</v>
+        <v>3410.089407771984</v>
       </c>
       <c r="S3">
-        <v>0.04283956820579263</v>
+        <v>0.09512203706212131</v>
       </c>
       <c r="T3">
-        <v>0.04283956820579263</v>
+        <v>0.0951220370621213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.636417666666667</v>
+        <v>11.190867</v>
       </c>
       <c r="H4">
-        <v>22.909253</v>
+        <v>33.572601</v>
       </c>
       <c r="I4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="J4">
-        <v>0.108532481296676</v>
+        <v>0.1514016037116739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>141.5772337080224</v>
+        <v>207.475816778626</v>
       </c>
       <c r="R4">
-        <v>1274.195103372202</v>
+        <v>1867.282351007634</v>
       </c>
       <c r="S4">
-        <v>0.02345790977009279</v>
+        <v>0.05208652318416565</v>
       </c>
       <c r="T4">
-        <v>0.02345790977009279</v>
+        <v>0.05208652318416565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J5">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>504.1517313658649</v>
+        <v>22.54145976910667</v>
       </c>
       <c r="R5">
-        <v>4537.365582292784</v>
+        <v>202.87313792196</v>
       </c>
       <c r="S5">
-        <v>0.08353282173323308</v>
+        <v>0.005659002986942174</v>
       </c>
       <c r="T5">
-        <v>0.08353282173323309</v>
+        <v>0.005659002986942173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J6">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>511.3683149939467</v>
@@ -818,10 +818,10 @@
         <v>4602.31483494552</v>
       </c>
       <c r="S6">
-        <v>0.08472853634893883</v>
+        <v>0.1283783238361681</v>
       </c>
       <c r="T6">
-        <v>0.08472853634893883</v>
+        <v>0.1283783238361681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="J7">
-        <v>0.214656652056136</v>
+        <v>0.2043341870182926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
         <v>280.0129015023633</v>
@@ -880,10 +880,10 @@
         <v>2520.11611352127</v>
       </c>
       <c r="S7">
-        <v>0.04639529397396408</v>
+        <v>0.07029686019518235</v>
       </c>
       <c r="T7">
-        <v>0.04639529397396408</v>
+        <v>0.07029686019518235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H8">
         <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J8">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>1589.58675148897</v>
+        <v>71.07305911876443</v>
       </c>
       <c r="R8">
-        <v>14306.28076340073</v>
+        <v>639.65753206888</v>
       </c>
       <c r="S8">
-        <v>0.2633783809130198</v>
+        <v>0.01784279536303275</v>
       </c>
       <c r="T8">
-        <v>0.2633783809130198</v>
+        <v>0.01784279536303275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H9">
         <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J9">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
         <v>1612.340587313618</v>
@@ -1004,10 +1004,10 @@
         <v>14511.06528582256</v>
       </c>
       <c r="S9">
-        <v>0.267148460421699</v>
+        <v>0.4047759236995263</v>
       </c>
       <c r="T9">
-        <v>0.267148460421699</v>
+        <v>0.4047759236995263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.62086333333334</v>
+        <v>47.62086333333333</v>
       </c>
       <c r="H10">
         <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="J10">
-        <v>0.676810866647188</v>
+        <v>0.6442642092700336</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
-        <v>882.878647006229</v>
+        <v>882.8786470062288</v>
       </c>
       <c r="R10">
-        <v>7945.907823056062</v>
+        <v>7945.907823056059</v>
       </c>
       <c r="S10">
-        <v>0.1462840253124692</v>
+        <v>0.2216454902074746</v>
       </c>
       <c r="T10">
-        <v>0.1462840253124692</v>
+        <v>0.2216454902074746</v>
       </c>
     </row>
   </sheetData>
